--- a/Ground Truth and Results/lucknow_big.xlsx
+++ b/Ground Truth and Results/lucknow_big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\Ground truth\big\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\BTP\Ground Truth and Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB2A8F-19A1-411E-B6BA-D0A591A79EAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8FCF64-3123-4083-8127-42153A2FFB73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -279,9 +279,6 @@
     <t>national yoga day, cbse results,lucknow hold main event for national yoga day, murder of jagendra singh journalist, ram murti (minister up) booked for conspiring in murder</t>
   </si>
   <si>
-    <t>Satellite</t>
-  </si>
-  <si>
     <t>"YES" COUNT</t>
   </si>
   <si>
@@ -289,6 +286,24 @@
   </si>
   <si>
     <t>Useful</t>
+  </si>
+  <si>
+    <t>2012-05, 2012-06, 2012-09</t>
+  </si>
+  <si>
+    <t>2012-05, 2012-06</t>
+  </si>
+  <si>
+    <t>2012-06, 2013-06, 2014-06, 2015-06, 2016-06, 2017-06</t>
+  </si>
+  <si>
+    <t>2014-03, 2014-04</t>
+  </si>
+  <si>
+    <t>2014-06, 2016-05, 2018-05</t>
+  </si>
+  <si>
+    <t>2017-01, 2017-02</t>
   </si>
 </sst>
 </file>
@@ -768,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -886,6 +901,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2164,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2691,32 +2713,32 @@
     <row r="2" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="45"/>
+      <c r="C3" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="48"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2734,8 +2756,8 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="20" t="s">
         <v>12</v>
       </c>
@@ -2751,8 +2773,8 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="20" t="s">
         <v>14</v>
       </c>
@@ -2768,8 +2790,8 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
@@ -2785,8 +2807,8 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
@@ -2802,8 +2824,8 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="20" t="s">
         <v>28</v>
       </c>
@@ -2819,8 +2841,8 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="20" t="s">
         <v>36</v>
       </c>
@@ -2836,8 +2858,8 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="23" t="s">
         <v>49</v>
       </c>
@@ -2853,8 +2875,8 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="23" t="s">
         <v>53</v>
       </c>
@@ -2870,8 +2892,8 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="21" t="s">
@@ -2883,8 +2905,8 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="21" t="s">
@@ -2896,8 +2918,8 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="55" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -2915,8 +2937,8 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
@@ -2928,8 +2950,8 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
@@ -2942,7 +2964,7 @@
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
-      <c r="B18" s="53"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="21" t="s">
         <v>26</v>
       </c>
@@ -2955,7 +2977,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
@@ -2968,7 +2990,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
-      <c r="B20" s="53"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="21" t="s">
         <v>47</v>
       </c>
@@ -3004,16 +3026,19 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="16.33203125" customWidth="1"/>
+    <col min="2" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="43" customWidth="1"/>
+    <col min="11" max="254" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3036,13 +3061,10 @@
         <v>63</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3067,12 +3089,10 @@
       <c r="G2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -3096,12 +3116,10 @@
       <c r="G3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -3125,12 +3143,10 @@
       <c r="G4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
@@ -3152,14 +3168,12 @@
         <v>65</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
@@ -3183,12 +3197,10 @@
       <c r="G6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
@@ -3212,12 +3224,10 @@
       <c r="G7" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -3241,12 +3251,10 @@
       <c r="G8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
@@ -3268,14 +3276,12 @@
         <v>67</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
@@ -3297,14 +3303,12 @@
         <v>65</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
@@ -3326,14 +3330,12 @@
         <v>69</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
@@ -3357,12 +3359,10 @@
       <c r="G12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
@@ -3386,12 +3386,10 @@
       <c r="G13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
@@ -3415,12 +3413,10 @@
       <c r="G14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
@@ -3442,14 +3438,12 @@
         <v>67</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
@@ -3471,14 +3465,12 @@
         <v>69</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
@@ -3502,12 +3494,10 @@
       <c r="G17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
@@ -3529,14 +3519,12 @@
         <v>67</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
@@ -3560,12 +3548,10 @@
       <c r="G19" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
@@ -3587,14 +3573,12 @@
         <v>67</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>55</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
@@ -3616,14 +3600,12 @@
         <v>69</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
@@ -3647,12 +3629,10 @@
       <c r="G22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
@@ -3674,14 +3654,12 @@
         <v>69</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
@@ -3705,12 +3683,10 @@
       <c r="G24" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
@@ -3734,12 +3710,10 @@
       <c r="G25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
@@ -3761,14 +3735,12 @@
         <v>67</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
@@ -3792,12 +3764,10 @@
       <c r="G27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
@@ -3821,23 +3791,21 @@
       <c r="G28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="29">
         <f>COUNTIF(B2:B28,"YES")</f>
         <v>12</v>
       </c>
       <c r="C29" s="29">
-        <f t="shared" ref="C29:H29" si="0">COUNTIF(C2:C28,"YES")</f>
+        <f t="shared" ref="C29:F29" si="0">COUNTIF(C2:C28,"YES")</f>
         <v>16</v>
       </c>
       <c r="D29" s="29">
@@ -3852,25 +3820,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H29" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
     </row>
     <row r="30" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="29">
         <f>COUNTIF(B2:B28,"NO")</f>
         <v>15</v>
       </c>
       <c r="C30" s="29">
-        <f t="shared" ref="C30:H30" si="1">COUNTIF(C2:C28,"NO")</f>
+        <f t="shared" ref="C30:F30" si="1">COUNTIF(C2:C28,"NO")</f>
         <v>11</v>
       </c>
       <c r="D30" s="29">
@@ -3884,14 +3844,6 @@
       <c r="F30" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="G30" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H30" s="29">
-        <f t="shared" si="1"/>
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -4030,35 +3982,28 @@
       <c r="C58" s="31"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:F28">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"""YES"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"""YES"""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G28">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H28">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H28">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"""YES"""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I28">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I28">
+  <conditionalFormatting sqref="G1:G28">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
